--- a/PolymorphismTestCases.xlsx
+++ b/PolymorphismTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\StockControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD4143-2354-4688-87EB-E3A6B8B08294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60037CD4-9C0D-4DDD-BEF9-761F4710B963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{75AEDDF3-F7DD-48D9-A325-EED1F906AE8B}"/>
   </bookViews>
@@ -136,15 +136,9 @@
     <t>Verifying price setter</t>
   </si>
   <si>
-    <t>Call addStock(97).                Call getQuantity()</t>
-  </si>
-  <si>
     <t>Call addStock(1)</t>
   </si>
   <si>
-    <t>Call sellStock(99),                Call getQuantity()</t>
-  </si>
-  <si>
     <t>Call addStock(-1)</t>
   </si>
   <si>
@@ -154,21 +148,9 @@
     <t>Call sellStock(-1)</t>
   </si>
   <si>
-    <t>Call addStock(2)</t>
-  </si>
-  <si>
-    <t>Call getVATPrice().</t>
-  </si>
-  <si>
     <t>Should return 5.5</t>
   </si>
   <si>
-    <t>Call getPrice().</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call setPrice(4.85).                                            Call getPrice().         </t>
-  </si>
-  <si>
     <t>price getter should now return 4.85.</t>
   </si>
   <si>
@@ -178,10 +160,28 @@
     <t>Construct stock item with Fixed stock code “SI1”, Quantity 1, and price 5.5. Call toString() method and print result.</t>
   </si>
   <si>
-    <t>Should return string for StockItem Class “Stock code: SI1,Stock name: Unknown Stock Name,                                              Stock description: Unknown Stock Description,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                               For NavSys: Stock code: NS2,Stock name: Unknown Stock Name,Stock description: Unknown Stock Description,
-Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                                                    For AirFreshener class: Stock code: AF3,Stock name: Unknown Stock Name,                                                                                   Stock description: Unknown Stock Description,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                 For WiperBlade class: Stock code: WB4,Stock name: Unknown Stock Name,Stock description: Unknown Stock Description,
-Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                                                    For EngineOil class: Stock code: EO5,Stock name: Unknown Stock Name,Stock description: Unknown Stock Description,
+    <t>Should return string for StockItem Class “Stock code: SI1,Stock name: Unknown Stock Name,                                              Stock description: Unknown Stock Description,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                               For NavSys: Stock code: NS2,Stock name: Navigation system,Stock description: GeoVision Sat Nav,
+Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                                                    For AirFreshener class: Stock code: AF3,Stock name: Air freshener,                                                                                                             Stock description: Easy breathe Air Freshener,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                 For WiperBlade class: Stock code: WB4,Stock name: Wiper blade,Stock description: Easy wipe wiper blade,
+Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                                                    For EngineOil class: Stock code: EO5,Stock name: Engine Oil,Stock description: Easy Run engine oil,
 Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””</t>
+  </si>
+  <si>
+    <t>Call addStock(97).                Print Call getQuantity()</t>
+  </si>
+  <si>
+    <t>Call addStock(2).                Print Call getQuantity()</t>
+  </si>
+  <si>
+    <t>Call sellStock(99).                Print Call getQuantity()</t>
+  </si>
+  <si>
+    <t>Print Call getPrice().</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call setPrice(4.85).                                            Print Call getPrice().         </t>
+  </si>
+  <si>
+    <t>Print Call getVATPrice().</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
@@ -621,15 +621,15 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>7</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -827,13 +827,13 @@
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -848,7 +848,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>

--- a/PolymorphismTestCases.xlsx
+++ b/PolymorphismTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\StockControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60037CD4-9C0D-4DDD-BEF9-761F4710B963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E29BAB-D755-4F8C-A218-6C863E9BED45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{75AEDDF3-F7DD-48D9-A325-EED1F906AE8B}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>Error “Can’t sell negative stock” or similar, false returned</t>
   </si>
   <si>
-    <t>Call getVAT()</t>
-  </si>
-  <si>
     <t>Verifying getVAT() method</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">Expected Result </t>
-  </si>
-  <si>
-    <t>Construct stock item with Fixed stock code “SI1”, Quantity 1, and price 5.5. Call toString() method and print result.</t>
   </si>
   <si>
     <t>Should return string for StockItem Class “Stock code: SI1,Stock name: Unknown Stock Name,                                              Stock description: Unknown Stock Description,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                               For NavSys: Stock code: NS2,Stock name: Navigation system,Stock description: GeoVision Sat Nav,
@@ -166,22 +160,28 @@
 Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””</t>
   </si>
   <si>
-    <t>Call addStock(97).                Print Call getQuantity()</t>
-  </si>
-  <si>
-    <t>Call addStock(2).                Print Call getQuantity()</t>
-  </si>
-  <si>
-    <t>Call sellStock(99).                Print Call getQuantity()</t>
-  </si>
-  <si>
     <t>Print Call getPrice().</t>
   </si>
   <si>
-    <t xml:space="preserve">Call setPrice(4.85).                                            Print Call getPrice().         </t>
-  </si>
-  <si>
-    <t>Print Call getVATPrice().</t>
+    <t xml:space="preserve"> Call getVATPrice().</t>
+  </si>
+  <si>
+    <t>Construct stock item with Fixed stock code “SI1”, Quantity 1, and price 5.5. Call toString() method and print item.</t>
+  </si>
+  <si>
+    <t>Call sellStock(99).                 Print Item.</t>
+  </si>
+  <si>
+    <t>Call addStock(97).                 Print Item.</t>
+  </si>
+  <si>
+    <t>Call addStock(2).                Print Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call setPrice(4.85).                                                             Print Item      </t>
+  </si>
+  <si>
+    <t>Print Call getVAT()</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
@@ -623,13 +623,13 @@
     </row>
     <row r="2" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>7</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -809,13 +809,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -830,10 +830,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -848,13 +848,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>

--- a/PolymorphismTestCases.xlsx
+++ b/PolymorphismTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\StockControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E29BAB-D755-4F8C-A218-6C863E9BED45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A6AEB7-D541-4CB0-8CAC-376D7F9EEC50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{75AEDDF3-F7DD-48D9-A325-EED1F906AE8B}"/>
   </bookViews>
@@ -73,93 +73,12 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Verifying addStock() method: normal functionality</t>
-  </si>
-  <si>
-    <t>Stock item quantity should be 3</t>
-  </si>
-  <si>
-    <t>Verifying addStock() method: new stock level exceeds 100</t>
-  </si>
-  <si>
-    <t>Error “Stock exceeds 100” or similar</t>
-  </si>
-  <si>
-    <t>Stock item quantity should be 100</t>
-  </si>
-  <si>
-    <t>Verifying addStock() method: adding negative stock</t>
-  </si>
-  <si>
-    <t>Error “Can’t add negative stock” or similar</t>
-  </si>
-  <si>
-    <t>Verifying sellStock() method: normal functionality</t>
-  </si>
-  <si>
-    <t>Stock item quantity should be 1, true returned</t>
-  </si>
-  <si>
-    <t>Verifying sellStock() method: not enough stock</t>
-  </si>
-  <si>
-    <t>Error “Not enough stock” or similar, false returned</t>
-  </si>
-  <si>
-    <t>Verifying sellStock() method: selling negative stock</t>
-  </si>
-  <si>
-    <t>Error “Can’t sell negative stock” or similar, false returned</t>
-  </si>
-  <si>
-    <t>Verifying getVAT() method</t>
-  </si>
-  <si>
-    <t>17.5 returned</t>
-  </si>
-  <si>
-    <t>Verifying toString() method</t>
-  </si>
-  <si>
-    <t>Verifying price getter</t>
-  </si>
-  <si>
-    <t>Verifying price with VAT getter</t>
-  </si>
-  <si>
-    <t>Should return 5.7</t>
-  </si>
-  <si>
-    <t>Verifying price setter</t>
-  </si>
-  <si>
-    <t>Call addStock(1)</t>
-  </si>
-  <si>
-    <t>Call addStock(-1)</t>
-  </si>
-  <si>
-    <t>Call sellStock(2)</t>
-  </si>
-  <si>
-    <t>Call sellStock(-1)</t>
-  </si>
-  <si>
-    <t>Should return 5.5</t>
-  </si>
-  <si>
     <t>price getter should now return 4.85.</t>
   </si>
   <si>
     <t xml:space="preserve">Expected Result </t>
   </si>
   <si>
-    <t>Should return string for StockItem Class “Stock code: SI1,Stock name: Unknown Stock Name,                                              Stock description: Unknown Stock Description,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                               For NavSys: Stock code: NS2,Stock name: Navigation system,Stock description: GeoVision Sat Nav,
-Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                                                    For AirFreshener class: Stock code: AF3,Stock name: Air freshener,                                                                                                             Stock description: Easy breathe Air Freshener,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                 For WiperBlade class: Stock code: WB4,Stock name: Wiper blade,Stock description: Easy wipe wiper blade,
-Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””                                                                                                    For EngineOil class: Stock code: EO5,Stock name: Engine Oil,Stock description: Easy Run engine oil,
-Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46””</t>
-  </si>
-  <si>
     <t>Print Call getPrice().</t>
   </si>
   <si>
@@ -175,13 +94,94 @@
     <t>Call addStock(97).                 Print Item.</t>
   </si>
   <si>
-    <t>Call addStock(2).                Print Item</t>
-  </si>
-  <si>
     <t xml:space="preserve">Call setPrice(4.85).                                                             Print Item      </t>
   </si>
   <si>
-    <t>Print Call getVAT()</t>
+    <t>Call addStock(2).                Print Item.</t>
+  </si>
+  <si>
+    <t>Call addStock(1).</t>
+  </si>
+  <si>
+    <t>Call addStock(-1).</t>
+  </si>
+  <si>
+    <t>Call sellStock(2).</t>
+  </si>
+  <si>
+    <t>Call sellStock(-1).</t>
+  </si>
+  <si>
+    <t>Print Call getVAT().</t>
+  </si>
+  <si>
+    <t>Verifying price with VAT getter.</t>
+  </si>
+  <si>
+    <t>Verifying price setter.</t>
+  </si>
+  <si>
+    <t>Verifying price getter.</t>
+  </si>
+  <si>
+    <t>Verifying getVAT() method.</t>
+  </si>
+  <si>
+    <t>Verifying sellStock() method: selling negative stock.</t>
+  </si>
+  <si>
+    <t>Verifying sellStock() method: not enough stock.</t>
+  </si>
+  <si>
+    <t>Verifying addStock() method: adding negative stock.</t>
+  </si>
+  <si>
+    <t>Verifying sellStock() method: normal functionality.</t>
+  </si>
+  <si>
+    <t>Verifying addStock() method: new stock level exceeds 100.</t>
+  </si>
+  <si>
+    <t>Verifying addStock() method: normal functionality.</t>
+  </si>
+  <si>
+    <t>Verifying toString() method.</t>
+  </si>
+  <si>
+    <t>Should return string for StockItem Class “Stock code: SI1,Stock name: Unknown Stock Name,                                              Stock description: Unknown Stock Description,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46.”                                                               For NavSys: Stock code: NS2,Stock name: Navigation system,Stock description: GeoVision Sat Nav,
+Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46.”                                                                                                           For AirFreshener class: Stock code: AF3,Stock name: Air freshener,                                                                                                             Stock description: Easy breathe Air Freshener,Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46.”                                                                For WiperBlade class: Stock code: WB4,Stock name: Wiper blade,Stock description: Easy wipe wiper blade,
+Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46.”                                                                                                           For EngineOil class: Stock code: EO5,Stock name: Engine Oil,Stock description: Easy Run engine oil,
+Stock quantity: 1,Stock price: £5.5,Stock price including VAT: £6.46”.</t>
+  </si>
+  <si>
+    <t>Stock item quantity should be 3.</t>
+  </si>
+  <si>
+    <t>Stock item quantity should be 100.</t>
+  </si>
+  <si>
+    <t>Error “Stock exceeds 100” or similar.</t>
+  </si>
+  <si>
+    <t>Stock item quantity should be 1, true returned.</t>
+  </si>
+  <si>
+    <t>Error “Can’t add negative stock” or similar.</t>
+  </si>
+  <si>
+    <t>Error “Not enough stock” or similar, false returned.</t>
+  </si>
+  <si>
+    <t>Error “Can’t sell negative stock” or similar, false returned.</t>
+  </si>
+  <si>
+    <t>17.5 returned.</t>
+  </si>
+  <si>
+    <t>Should return 5.5.</t>
+  </si>
+  <si>
+    <t>Should return 5.7.</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
@@ -623,13 +623,13 @@
     </row>
     <row r="2" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -644,13 +644,13 @@
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -665,13 +665,13 @@
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -686,13 +686,13 @@
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -704,13 +704,13 @@
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -725,13 +725,13 @@
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -746,13 +746,13 @@
     </row>
     <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -767,13 +767,13 @@
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -788,13 +788,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -809,13 +809,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -827,13 +827,13 @@
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -848,13 +848,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
